--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_AnhTuanNB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang5\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang5\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="90">
   <si>
     <t>STT</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>Dây kết nối</t>
+  </si>
+  <si>
+    <t>Thiết bị chốt GSM bình thường</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GSM</t>
   </si>
 </sst>
 </file>
@@ -706,6 +712,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -723,30 +753,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1090,43 +1096,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1171,58 +1177,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1247,23 +1253,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1299,7 +1305,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1340,7 +1346,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1369,7 +1375,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1398,7 +1404,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1427,7 +1433,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1456,7 +1462,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1485,7 +1491,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1516,7 +1522,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1545,7 +1551,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1574,7 +1580,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1603,7 +1609,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2833,13 +2839,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2851,6 +2850,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2861,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2894,43 +2900,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -2975,58 +2981,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3051,23 +3057,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3103,7 +3109,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3144,7 +3150,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3183,7 +3189,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3222,7 +3228,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3261,7 +3267,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3300,7 +3306,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3331,7 +3337,9 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="M12" s="39" t="s">
+        <v>89</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="39"/>
       <c r="P12" s="1"/>
@@ -3339,7 +3347,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3380,7 +3388,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3419,7 +3427,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3458,7 +3466,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3497,7 +3505,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3642,7 +3650,9 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="O20" s="39"/>
       <c r="P20" s="1"/>
@@ -3726,7 +3736,9 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="9"/>
+      <c r="M22" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="N22" s="9"/>
       <c r="O22" s="39"/>
       <c r="P22" s="9"/>
@@ -4787,13 +4799,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4805,6 +4810,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4848,43 +4860,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -4929,58 +4941,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -5005,23 +5017,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5057,7 +5069,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5088,7 +5100,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5117,7 +5129,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5146,7 +5158,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5175,7 +5187,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5204,7 +5216,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5233,7 +5245,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5264,7 +5276,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5293,7 +5305,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5322,7 +5334,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5351,7 +5363,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6581,13 +6593,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6599,6 +6604,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6642,43 +6654,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -6723,58 +6735,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -6799,23 +6811,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="75"/>
       <c r="P5" s="81"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6841,7 +6853,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6872,7 +6884,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6901,7 +6913,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6930,7 +6942,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6959,7 +6971,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6988,7 +7000,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7017,7 +7029,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7048,7 +7060,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7077,7 +7089,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7106,7 +7118,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7135,7 +7147,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8366,13 +8378,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8384,6 +8389,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH01" sheetId="42" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="95">
   <si>
     <t>STT</t>
   </si>
@@ -307,6 +307,21 @@
   </si>
   <si>
     <t>Thiết bị không chốt GSM</t>
+  </si>
+  <si>
+    <t>Thiết bị còi kêu nhưng không lên đèn</t>
+  </si>
+  <si>
+    <t>Thiết bị không lên đèn, vẫn lên camera không bảo status</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi 1 camera sau</t>
+  </si>
+  <si>
+    <t>Thiết bị không hiện số VOL</t>
   </si>
 </sst>
 </file>
@@ -712,30 +727,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -753,6 +744,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1064,7 +1079,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1096,43 +1111,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1177,58 +1192,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1253,23 +1268,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1305,7 +1320,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1346,7 +1361,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1375,7 +1390,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1404,7 +1419,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1433,7 +1448,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1462,7 +1477,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1491,7 +1506,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1522,7 +1537,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1551,7 +1566,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1580,7 +1595,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1609,7 +1624,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2839,6 +2854,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2850,13 +2872,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2867,8 +2882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2900,43 +2915,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -2981,58 +2996,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3057,23 +3072,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3098,7 +3113,9 @@
       </c>
       <c r="H6" s="48"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K6" s="64"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -3109,7 +3126,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3150,7 +3167,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3178,7 +3195,9 @@
       </c>
       <c r="H8" s="48"/>
       <c r="I8" s="53"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K8" s="64"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
@@ -3189,7 +3208,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3217,7 +3236,9 @@
       </c>
       <c r="H9" s="48"/>
       <c r="I9" s="53"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
@@ -3228,7 +3249,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3256,7 +3277,9 @@
       </c>
       <c r="H10" s="48"/>
       <c r="I10" s="53"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="K10" s="38"/>
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
@@ -3267,7 +3290,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3306,7 +3329,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3347,7 +3370,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3388,7 +3411,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3427,7 +3450,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3466,7 +3489,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3505,7 +3528,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3569,7 +3592,9 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="53"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="9"/>
@@ -4799,6 +4824,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4810,13 +4842,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4827,8 +4852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4860,43 +4885,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -4941,58 +4966,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -5017,23 +5042,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5069,7 +5094,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5100,7 +5125,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5129,7 +5154,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5158,7 +5183,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5187,7 +5212,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5216,7 +5241,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5245,7 +5270,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5276,7 +5301,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5305,7 +5330,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5334,7 +5359,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5363,7 +5388,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6593,6 +6618,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6604,13 +6636,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6654,43 +6679,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -6735,58 +6760,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -6811,23 +6836,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="75"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="67"/>
       <c r="P5" s="81"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="74"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6853,7 +6878,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6884,7 +6909,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6913,7 +6938,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6942,7 +6967,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6971,7 +6996,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7000,7 +7025,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7029,7 +7054,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7060,7 +7085,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7089,7 +7114,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7118,7 +7143,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7147,7 +7172,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8378,6 +8403,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8389,13 +8421,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_AnhTuanNB.xlsx
@@ -9,30 +9,33 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
-    <sheet name="VNSH01" sheetId="42" r:id="rId1"/>
-    <sheet name="VNSH02" sheetId="41" r:id="rId2"/>
-    <sheet name="PhuKien" sheetId="39" r:id="rId3"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId4"/>
+    <sheet name="TG102LE-4G" sheetId="43" r:id="rId1"/>
+    <sheet name="VNSH01" sheetId="42" r:id="rId2"/>
+    <sheet name="VNSH02" sheetId="41" r:id="rId3"/>
+    <sheet name="PhuKien" sheetId="39" r:id="rId4"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PhuKien!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VNSH01!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">VNSH02!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">PhuKien!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">VNSH01!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">VNSH02!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PhuKien!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">VNSH01!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">VNSH02!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">PhuKien!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">VNSH01!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">VNSH02!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="102">
   <si>
     <t>STT</t>
   </si>
@@ -323,6 +326,27 @@
   <si>
     <t>Thiết bị không hiện số VOL</t>
   </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Le4.1.02.AOO06.220322</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>Le4.1.05.AOO55.210624</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16060</t>
+  </si>
 </sst>
 </file>
 
@@ -527,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -727,6 +751,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -744,30 +798,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1076,6 +1106,3216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X60"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="56" customWidth="1"/>
+    <col min="10" max="10" width="53" style="19" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="45"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="81"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="46"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="82"/>
+      <c r="B5" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="77"/>
+      <c r="K5" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="46"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C6" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="38">
+        <v>862205051190629</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="48"/>
+      <c r="I6" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="67"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C7" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="38">
+        <v>861881051084979</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="48"/>
+      <c r="I7" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="67"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C8" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="38">
+        <v>861881051088954</v>
+      </c>
+      <c r="F8" s="48"/>
+      <c r="G8" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="48"/>
+      <c r="I8" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="67"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C9" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="38">
+        <v>861881051089416</v>
+      </c>
+      <c r="F9" s="48"/>
+      <c r="G9" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="48"/>
+      <c r="I9" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="67"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C10" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="38">
+        <v>861881051088004</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="48"/>
+      <c r="I10" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="3"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="67"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C11" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="38">
+        <v>862205051187963</v>
+      </c>
+      <c r="F11" s="48"/>
+      <c r="G11" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="48"/>
+      <c r="I11" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="3"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="67"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C12" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="38">
+        <v>861881051080134</v>
+      </c>
+      <c r="F12" s="48"/>
+      <c r="G12" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="48"/>
+      <c r="I12" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="3"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="67"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C13" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="38">
+        <v>861881051086750</v>
+      </c>
+      <c r="F13" s="48"/>
+      <c r="G13" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="48"/>
+      <c r="I13" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="67"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C14" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="38">
+        <v>862205051175786</v>
+      </c>
+      <c r="F14" s="48"/>
+      <c r="G14" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="48"/>
+      <c r="I14" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="67"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C15" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="38">
+        <v>862205051215764</v>
+      </c>
+      <c r="F15" s="48"/>
+      <c r="G15" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="48"/>
+      <c r="I15" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="67"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C16" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="38">
+        <v>862205051163113</v>
+      </c>
+      <c r="F16" s="48"/>
+      <c r="G16" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="37"/>
+      <c r="I16" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="67"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C17" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="38">
+        <v>861881051074913</v>
+      </c>
+      <c r="F17" s="48"/>
+      <c r="G17" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="39"/>
+      <c r="L17" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="67"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C18" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="38">
+        <v>861881051082817</v>
+      </c>
+      <c r="F18" s="48"/>
+      <c r="G18" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C19" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="38">
+        <v>861881051086529</v>
+      </c>
+      <c r="F19" s="48"/>
+      <c r="G19" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="47"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C20" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="38">
+        <v>861881051086651</v>
+      </c>
+      <c r="F20" s="48"/>
+      <c r="G20" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P20" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>46</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C21" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="38">
+        <v>861881051086545</v>
+      </c>
+      <c r="F21" s="48"/>
+      <c r="G21" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C22" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="38">
+        <v>861881051083468</v>
+      </c>
+      <c r="F22" s="48"/>
+      <c r="G22" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C23" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="38">
+        <v>861881051077791</v>
+      </c>
+      <c r="F23" s="48"/>
+      <c r="G23" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P23" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C24" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="38">
+        <v>861881051090489</v>
+      </c>
+      <c r="F24" s="48"/>
+      <c r="G24" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C25" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="38">
+        <v>862205051195685</v>
+      </c>
+      <c r="F25" s="48"/>
+      <c r="G25" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M25" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P25" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="47"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C26" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="38">
+        <v>862205051163055</v>
+      </c>
+      <c r="F26" s="48"/>
+      <c r="G26" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M26" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C27" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="38">
+        <v>861881051090190</v>
+      </c>
+      <c r="F27" s="48"/>
+      <c r="G27" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M27" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P27" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C28" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="38">
+        <v>861881051088582</v>
+      </c>
+      <c r="F28" s="48"/>
+      <c r="G28" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M28" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P28" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C29" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="38">
+        <v>861881051089382</v>
+      </c>
+      <c r="F29" s="48"/>
+      <c r="G29" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M29" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P29" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C30" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="38">
+        <v>862205051216846</v>
+      </c>
+      <c r="F30" s="48"/>
+      <c r="G30" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M30" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C31" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="38">
+        <v>862205051188821</v>
+      </c>
+      <c r="F31" s="48"/>
+      <c r="G31" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M31" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P31" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C32" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="38">
+        <v>861881051077809</v>
+      </c>
+      <c r="F32" s="48"/>
+      <c r="G32" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M32" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P32" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C33" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="38">
+        <v>861881054164034</v>
+      </c>
+      <c r="F33" s="48"/>
+      <c r="G33" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M33" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P33" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C34" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="38">
+        <v>862205051196857</v>
+      </c>
+      <c r="F34" s="48"/>
+      <c r="G34" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M34" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P34" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C35" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="38">
+        <v>861881051085802</v>
+      </c>
+      <c r="F35" s="48"/>
+      <c r="G35" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M35" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P35" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>46</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C36" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="38">
+        <v>861881051085497</v>
+      </c>
+      <c r="F36" s="48"/>
+      <c r="G36" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M36" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P36" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C37" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="38">
+        <v>861881051082627</v>
+      </c>
+      <c r="F37" s="48"/>
+      <c r="G37" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M37" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P37" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>46</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C38" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="38">
+        <v>861881051088814</v>
+      </c>
+      <c r="F38" s="48"/>
+      <c r="G38" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M38" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P38" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C39" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="38">
+        <v>861881051088913</v>
+      </c>
+      <c r="F39" s="48"/>
+      <c r="G39" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M39" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P39" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C40" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="38">
+        <v>862205051163154</v>
+      </c>
+      <c r="F40" s="48"/>
+      <c r="G40" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M40" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P40" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C41" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="38">
+        <v>862205051180240</v>
+      </c>
+      <c r="F41" s="48"/>
+      <c r="G41" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M41" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P41" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C42" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="38">
+        <v>861881051071968</v>
+      </c>
+      <c r="F42" s="48"/>
+      <c r="G42" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M42" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P42" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C43" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="38">
+        <v>861881051084631</v>
+      </c>
+      <c r="F43" s="48"/>
+      <c r="G43" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M43" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P43" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C44" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="38">
+        <v>861881051088665</v>
+      </c>
+      <c r="F44" s="48"/>
+      <c r="G44" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M44" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P44" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C45" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="38">
+        <v>861881051088939</v>
+      </c>
+      <c r="F45" s="48"/>
+      <c r="G45" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M45" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P45" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C46" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="38">
+        <v>862205051188490</v>
+      </c>
+      <c r="F46" s="48"/>
+      <c r="G46" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M46" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P46" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C47" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="38">
+        <v>862205051199166</v>
+      </c>
+      <c r="F47" s="48"/>
+      <c r="G47" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M47" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P47" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C48" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="38">
+        <v>861881051078716</v>
+      </c>
+      <c r="F48" s="48"/>
+      <c r="G48" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M48" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P48" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C49" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="38">
+        <v>861881051091438</v>
+      </c>
+      <c r="F49" s="48"/>
+      <c r="G49" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M49" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P49" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C50" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="38">
+        <v>861881051083211</v>
+      </c>
+      <c r="F50" s="48"/>
+      <c r="G50" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H50" s="31"/>
+      <c r="I50" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M50" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P50" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C51" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="38">
+        <v>861881051085851</v>
+      </c>
+      <c r="F51" s="48"/>
+      <c r="G51" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M51" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P51" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C52" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="38">
+        <v>861881051089119</v>
+      </c>
+      <c r="F52" s="48"/>
+      <c r="G52" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H52" s="32"/>
+      <c r="I52" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M52" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P52" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C53" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="38">
+        <v>861881051086610</v>
+      </c>
+      <c r="F53" s="48"/>
+      <c r="G53" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H53" s="32"/>
+      <c r="I53" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M53" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P53" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C54" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="38">
+        <v>860906041207496</v>
+      </c>
+      <c r="F54" s="48"/>
+      <c r="G54" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H54" s="32"/>
+      <c r="I54" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M54" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P54" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C55" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="38">
+        <v>862205051194332</v>
+      </c>
+      <c r="F55" s="48"/>
+      <c r="G55" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H55" s="32"/>
+      <c r="I55" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M55" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P55" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C56" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="38">
+        <v>861881051084185</v>
+      </c>
+      <c r="F56" s="48"/>
+      <c r="G56" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H56" s="32"/>
+      <c r="I56" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M56" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P56" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C57" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="38">
+        <v>862205051172056</v>
+      </c>
+      <c r="F57" s="48"/>
+      <c r="G57" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H57" s="32"/>
+      <c r="I57" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M57" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P57" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C58" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="38">
+        <v>862205051165993</v>
+      </c>
+      <c r="F58" s="48"/>
+      <c r="G58" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H58" s="32"/>
+      <c r="I58" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M58" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P58" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C59" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" s="38">
+        <v>861881051083211</v>
+      </c>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H59" s="32"/>
+      <c r="I59" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M59" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P59" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="61">
+        <v>44697</v>
+      </c>
+      <c r="C60" s="61">
+        <v>44702</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E60" s="38">
+        <v>862205051171470</v>
+      </c>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H60" s="32"/>
+      <c r="I60" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M60" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P60" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1111,43 +4351,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1192,58 +4432,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1268,23 +4508,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1320,7 +4560,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1361,7 +4601,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1390,7 +4630,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1419,7 +4659,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1448,7 +4688,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1477,7 +4717,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1506,7 +4746,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1537,7 +4777,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1566,7 +4806,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1595,7 +4835,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1624,7 +4864,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2854,13 +6094,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2872,13 +6105,20 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -2915,43 +6155,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -2996,58 +6236,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3072,23 +6312,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3126,7 +6366,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3167,7 +6407,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3208,7 +6448,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3249,7 +6489,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3290,7 +6530,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3329,7 +6569,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3370,7 +6610,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3411,7 +6651,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3450,7 +6690,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3489,7 +6729,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3528,7 +6768,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4824,13 +8064,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4842,18 +8075,25 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4885,43 +8125,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -4966,58 +8206,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -5042,23 +8282,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5094,7 +8334,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5125,7 +8365,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5154,7 +8394,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5183,7 +8423,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5212,7 +8452,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5241,7 +8481,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5270,7 +8510,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5301,7 +8541,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5330,7 +8570,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5359,7 +8599,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5388,7 +8628,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6618,13 +9858,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6636,13 +9869,20 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -6679,43 +9919,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -6760,58 +10000,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -6836,23 +10076,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6878,7 +10118,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6909,7 +10149,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6938,7 +10178,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6967,7 +10207,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6996,7 +10236,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7025,7 +10265,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7054,7 +10294,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7085,7 +10325,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7114,7 +10354,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7143,7 +10383,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7172,7 +10412,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8403,13 +11643,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8421,6 +11654,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE-4G" sheetId="43" r:id="rId1"/>
@@ -1108,7 +1108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -4290,13 +4290,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4308,6 +4301,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6094,6 +6094,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6105,13 +6112,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6122,8 +6122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6558,7 +6558,9 @@
       </c>
       <c r="H11" s="48"/>
       <c r="I11" s="53"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="39" t="s">
+        <v>89</v>
+      </c>
       <c r="K11" s="38"/>
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
@@ -6600,9 +6602,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="39"/>
-      <c r="M12" s="39" t="s">
-        <v>89</v>
-      </c>
+      <c r="M12" s="39"/>
       <c r="N12" s="1"/>
       <c r="O12" s="39"/>
       <c r="P12" s="1"/>
@@ -7838,7 +7838,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -8064,6 +8064,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8075,13 +8082,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9858,6 +9858,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9869,13 +9876,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11643,6 +11643,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11654,13 +11661,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE-4G" sheetId="43" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="103">
   <si>
     <t>STT</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>Bần giao cho LỰC</t>
   </si>
 </sst>
 </file>
@@ -757,30 +760,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -798,6 +777,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1141,43 +1144,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1222,58 +1225,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -1298,23 +1301,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1364,7 +1367,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1419,7 +1422,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1472,7 +1475,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1525,7 +1528,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1578,7 +1581,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1631,7 +1634,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1684,7 +1687,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1739,7 +1742,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1792,7 +1795,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1845,7 +1848,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1898,7 +1901,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4290,6 +4293,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4301,13 +4311,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4318,8 +4321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4351,43 +4354,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -4432,58 +4435,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -4508,23 +4511,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4534,7 +4537,9 @@
       <c r="B6" s="61">
         <v>44685</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44709</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>64</v>
       </c>
@@ -4560,7 +4565,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4575,7 +4580,9 @@
       <c r="B7" s="61">
         <v>44685</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44709</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>64</v>
       </c>
@@ -4601,7 +4608,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4630,7 +4637,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4659,7 +4666,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -4688,7 +4695,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4717,7 +4724,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4746,7 +4753,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4777,7 +4784,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4806,7 +4813,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4835,7 +4842,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4864,7 +4871,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6094,13 +6101,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6112,6 +6112,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6122,8 +6129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6155,43 +6162,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -6236,58 +6243,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -6312,23 +6319,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6338,7 +6345,9 @@
       <c r="B6" s="61">
         <v>44685</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44709</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>66</v>
       </c>
@@ -6366,7 +6375,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6381,7 +6390,9 @@
       <c r="B7" s="61">
         <v>44685</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44709</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>66</v>
       </c>
@@ -6407,7 +6418,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6420,7 +6431,9 @@
       <c r="B8" s="61">
         <v>44685</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44709</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>66</v>
       </c>
@@ -6433,7 +6446,9 @@
       <c r="G8" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="48"/>
+      <c r="H8" s="37" t="s">
+        <v>102</v>
+      </c>
       <c r="I8" s="53"/>
       <c r="J8" s="1" t="s">
         <v>92</v>
@@ -6448,7 +6463,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6461,7 +6476,9 @@
       <c r="B9" s="61">
         <v>44685</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="61">
+        <v>44709</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>66</v>
       </c>
@@ -6474,7 +6491,7 @@
       <c r="G9" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="48"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="53"/>
       <c r="J9" s="1" t="s">
         <v>94</v>
@@ -6489,7 +6506,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6502,7 +6519,9 @@
       <c r="B10" s="61">
         <v>44685</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="61">
+        <v>44709</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>66</v>
       </c>
@@ -6530,7 +6549,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6543,7 +6562,9 @@
       <c r="B11" s="61">
         <v>44685</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="61">
+        <v>44709</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>66</v>
       </c>
@@ -6571,7 +6592,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6584,7 +6605,9 @@
       <c r="B12" s="61">
         <v>44685</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="61">
+        <v>44709</v>
+      </c>
       <c r="D12" s="37" t="s">
         <v>66</v>
       </c>
@@ -6610,7 +6633,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6625,7 +6648,9 @@
       <c r="B13" s="61">
         <v>44685</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="61">
+        <v>44709</v>
+      </c>
       <c r="D13" s="37" t="s">
         <v>66</v>
       </c>
@@ -6651,7 +6676,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6664,7 +6689,9 @@
       <c r="B14" s="61">
         <v>44685</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="61">
+        <v>44709</v>
+      </c>
       <c r="D14" s="37" t="s">
         <v>66</v>
       </c>
@@ -6690,7 +6717,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6703,7 +6730,9 @@
       <c r="B15" s="61">
         <v>44685</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="61">
+        <v>44709</v>
+      </c>
       <c r="D15" s="37" t="s">
         <v>66</v>
       </c>
@@ -6729,7 +6758,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6742,7 +6771,9 @@
       <c r="B16" s="61">
         <v>44685</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="61">
+        <v>44709</v>
+      </c>
       <c r="D16" s="37" t="s">
         <v>66</v>
       </c>
@@ -6768,7 +6799,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6781,7 +6812,9 @@
       <c r="B17" s="61">
         <v>44685</v>
       </c>
-      <c r="C17" s="61"/>
+      <c r="C17" s="61">
+        <v>44709</v>
+      </c>
       <c r="D17" s="37" t="s">
         <v>66</v>
       </c>
@@ -6817,7 +6850,9 @@
       <c r="B18" s="61">
         <v>44685</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="61">
+        <v>44709</v>
+      </c>
       <c r="D18" s="37" t="s">
         <v>66</v>
       </c>
@@ -6856,7 +6891,9 @@
       <c r="B19" s="61">
         <v>44685</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="61">
+        <v>44709</v>
+      </c>
       <c r="D19" s="37" t="s">
         <v>66</v>
       </c>
@@ -6897,7 +6934,9 @@
       <c r="B20" s="61">
         <v>44685</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="61">
+        <v>44709</v>
+      </c>
       <c r="D20" s="37" t="s">
         <v>66</v>
       </c>
@@ -6941,7 +6980,9 @@
       <c r="B21" s="61">
         <v>44685</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="61">
+        <v>44709</v>
+      </c>
       <c r="D21" s="37" t="s">
         <v>66</v>
       </c>
@@ -6983,7 +7024,9 @@
       <c r="B22" s="61">
         <v>44685</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="61">
+        <v>44709</v>
+      </c>
       <c r="D22" s="37" t="s">
         <v>66</v>
       </c>
@@ -8064,13 +8107,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8082,6 +8118,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8125,43 +8168,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -8206,58 +8249,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -8282,23 +8325,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8334,7 +8377,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8365,7 +8408,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8394,7 +8437,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8423,7 +8466,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8452,7 +8495,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8481,7 +8524,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8510,7 +8553,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8541,7 +8584,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8570,7 +8613,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8599,7 +8642,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8628,7 +8671,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9858,13 +9901,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9876,6 +9912,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9919,43 +9962,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -10000,58 +10043,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -10076,23 +10119,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="77"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="69"/>
       <c r="P5" s="83"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="76"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10118,7 +10161,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10149,7 +10192,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10178,7 +10221,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10207,7 +10250,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10236,7 +10279,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10265,7 +10308,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10294,7 +10337,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10325,7 +10368,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10354,7 +10397,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10383,7 +10426,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10412,7 +10455,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -11643,13 +11686,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11661,6 +11697,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_AnhTuanNB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="106">
   <si>
     <t>STT</t>
   </si>
@@ -348,7 +348,16 @@
     <t>125.212.203.114,16060</t>
   </si>
   <si>
-    <t>Bần giao cho LỰC</t>
+    <t>Bàn giao cho LỰC</t>
+  </si>
+  <si>
+    <t>Trả kho</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>CAM</t>
   </si>
 </sst>
 </file>
@@ -760,6 +769,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -777,30 +810,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1144,43 +1153,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1225,58 +1234,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -1301,23 +1310,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1367,7 +1376,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1422,7 +1431,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1475,7 +1484,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1528,7 +1537,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1581,7 +1590,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1634,7 +1643,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1687,7 +1696,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1742,7 +1751,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1795,7 +1804,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1848,7 +1857,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1901,7 +1910,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4293,13 +4302,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4311,6 +4313,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4321,8 +4330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4354,43 +4363,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -4435,58 +4444,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -4511,23 +4520,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4557,15 +4566,25 @@
       <c r="J6" s="1"/>
       <c r="K6" s="64"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4600,15 +4619,25 @@
       <c r="J7" s="1"/>
       <c r="K7" s="64"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4637,7 +4666,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4666,7 +4695,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -4695,7 +4724,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4724,7 +4753,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4753,7 +4782,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4784,7 +4813,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4813,7 +4842,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4842,7 +4871,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4871,7 +4900,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4989,7 +5018,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -5490,7 +5519,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -5522,7 +5551,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6101,6 +6130,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6112,13 +6148,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6130,7 +6159,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:R23"/>
+      <selection activeCell="B6" sqref="B6:R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6162,43 +6191,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -6243,58 +6272,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -6319,23 +6348,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6367,15 +6396,25 @@
       </c>
       <c r="K6" s="64"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6410,15 +6449,25 @@
       <c r="J7" s="1"/>
       <c r="K7" s="64"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6455,15 +6504,25 @@
       </c>
       <c r="K8" s="64"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6498,15 +6557,25 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6541,15 +6610,25 @@
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6584,15 +6663,25 @@
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="M11" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
+      <c r="O11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6625,15 +6714,25 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="M12" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
+      <c r="O12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6668,15 +6767,25 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="M13" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="37"/>
+      <c r="O13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6709,15 +6818,25 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="M14" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="37"/>
+      <c r="O14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6750,15 +6869,25 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="M15" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="37"/>
+      <c r="O15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6791,15 +6920,25 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="M16" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="37"/>
+      <c r="O16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6831,12 +6970,22 @@
       <c r="I17" s="53"/>
       <c r="J17" s="39"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="39"/>
+      <c r="M17" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="37"/>
+      <c r="O17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
       <c r="U17" s="66"/>
@@ -6872,12 +7021,22 @@
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="9"/>
+      <c r="M18" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="9"/>
+      <c r="O18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -6911,12 +7070,22 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="N19" s="40"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="37"/>
+      <c r="O19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
       <c r="U19" s="65" t="s">
@@ -6958,10 +7127,18 @@
         <v>88</v>
       </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="9"/>
+      <c r="O20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P20" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="13"/>
       <c r="U20" s="9" t="s">
@@ -6969,7 +7146,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -7000,12 +7177,22 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="9"/>
+      <c r="O21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S21" s="3"/>
       <c r="T21" s="13"/>
       <c r="U21" s="9" t="s">
@@ -7013,7 +7200,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -7048,10 +7235,18 @@
         <v>88</v>
       </c>
       <c r="N22" s="9"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="9"/>
+      <c r="O22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S22" s="3"/>
       <c r="T22" s="13"/>
       <c r="U22" s="9" t="s">
@@ -7336,7 +7531,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -7496,7 +7691,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -7528,7 +7723,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -8107,6 +8302,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8118,13 +8320,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8168,43 +8363,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -8249,58 +8444,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -8325,23 +8520,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8377,7 +8572,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8408,7 +8603,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8437,7 +8632,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8466,7 +8661,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8495,7 +8690,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8524,7 +8719,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8553,7 +8748,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8584,7 +8779,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8613,7 +8808,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8642,7 +8837,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8671,7 +8866,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9901,6 +10096,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9912,13 +10114,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9962,43 +10157,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -10043,58 +10238,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -10119,23 +10314,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="69"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="77"/>
       <c r="P5" s="83"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10161,7 +10356,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10192,7 +10387,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10221,7 +10416,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10250,7 +10445,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10279,7 +10474,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10308,7 +10503,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10337,7 +10532,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10368,7 +10563,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10397,7 +10592,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10426,7 +10621,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10455,7 +10650,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -11686,6 +11881,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11697,13 +11899,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
